--- a/enhancement_montecarlo_output.xlsx
+++ b/enhancement_montecarlo_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emilianopc\PycharmProjects\redhat-jira-montecarlo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036A0FC0-F4D9-4B0A-AA8A-C243A22AA625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED222345-82CD-4D99-98B9-1CD5A8FF9AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,13 +17,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$166</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$H$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$166</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$166</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$H$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$H$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -50,8 +43,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -129,12 +122,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -167,36 +160,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -734,504 +697,504 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$166</c:f>
+              <c:f>Sheet1!$F$2:$F$166</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="165"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0000100001000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0000200002000018E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0000200002000018E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.000030000300003E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>2.0000200002000018E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.0000200002000018E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0000100001000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0000100001000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0000100001000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>4.0000400004000037E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>2.0000200002000018E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>3.000030000300003E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>7.0000700007000075E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>7.0000700007000075E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>7.0000700007000075E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14</c:v>
+                  <c:v>1.4000140001400015E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
+                  <c:v>1.000010000100001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>1.7000170001700017E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15</c:v>
+                  <c:v>1.5000150001500014E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13</c:v>
+                  <c:v>1.3000130001300013E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16</c:v>
+                  <c:v>1.6000160001600015E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19</c:v>
+                  <c:v>1.9000190001900018E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>2.2000220002200022E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14</c:v>
+                  <c:v>1.4000140001400015E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>29</c:v>
+                  <c:v>2.9000290002900032E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31</c:v>
+                  <c:v>3.100031000310003E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25</c:v>
+                  <c:v>2.5000250002500023E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>36</c:v>
+                  <c:v>3.6000360003600032E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44</c:v>
+                  <c:v>4.4000440004400045E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50</c:v>
+                  <c:v>5.0000500005000045E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55</c:v>
+                  <c:v>5.5000550005500054E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>71</c:v>
+                  <c:v>7.1000710007100065E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>83</c:v>
+                  <c:v>8.3000830008300081E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>88</c:v>
+                  <c:v>8.8000880008800089E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>86</c:v>
+                  <c:v>8.6000860008600091E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>96</c:v>
+                  <c:v>9.6000960009600095E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>114</c:v>
+                  <c:v>0.11400114001140012</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>133</c:v>
+                  <c:v>0.13300133001330011</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>137</c:v>
+                  <c:v>0.13700137001370014</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>145</c:v>
+                  <c:v>0.14500145001450016</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>162</c:v>
+                  <c:v>0.16200162001620017</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>182</c:v>
+                  <c:v>0.1820018200182002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>201</c:v>
+                  <c:v>0.20100201002010021</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>232</c:v>
+                  <c:v>0.23200232002320026</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>240</c:v>
+                  <c:v>0.24000240002400022</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>269</c:v>
+                  <c:v>0.2690026900269003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>319</c:v>
+                  <c:v>0.31900319003190031</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>328</c:v>
+                  <c:v>0.32800328003280033</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>363</c:v>
+                  <c:v>0.36300363003630037</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>373</c:v>
+                  <c:v>0.37300373003730036</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>433</c:v>
+                  <c:v>0.43300433004330047</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>435</c:v>
+                  <c:v>0.43500435004350047</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>501</c:v>
+                  <c:v>0.50100501005010056</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>528</c:v>
+                  <c:v>0.52800528005280056</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>546</c:v>
+                  <c:v>0.54600546005460049</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>600</c:v>
+                  <c:v>0.6000060000600006</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>663</c:v>
+                  <c:v>0.66300663006630067</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>683</c:v>
+                  <c:v>0.68300683006830065</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>691</c:v>
+                  <c:v>0.69100691006910075</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>764</c:v>
+                  <c:v>0.76400764007640076</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>856</c:v>
+                  <c:v>0.85600856008560089</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>899</c:v>
+                  <c:v>0.89900899008990098</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>978</c:v>
+                  <c:v>0.97800978009780093</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>977</c:v>
+                  <c:v>0.97700977009770096</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1041</c:v>
+                  <c:v>1.0410104101041011</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1073</c:v>
+                  <c:v>1.0730107301073011</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1146</c:v>
+                  <c:v>1.1460114601146012</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1141</c:v>
+                  <c:v>1.1410114101141011</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1223</c:v>
+                  <c:v>1.2230122301223012</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1265</c:v>
+                  <c:v>1.2650126501265013</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1350</c:v>
+                  <c:v>1.3500135001350013</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1390</c:v>
+                  <c:v>1.3900139001390013</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1480</c:v>
+                  <c:v>1.4800148001480016</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1413</c:v>
+                  <c:v>1.4130141301413015</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1519</c:v>
+                  <c:v>1.5190151901519016</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1517</c:v>
+                  <c:v>1.5170151701517014</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1654</c:v>
+                  <c:v>1.6540165401654019</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1609</c:v>
+                  <c:v>1.6090160901609016</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1729</c:v>
+                  <c:v>1.7290172901729017</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1688</c:v>
+                  <c:v>1.6880168801688016</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1684</c:v>
+                  <c:v>1.6840168401684019</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1787</c:v>
+                  <c:v>1.7870178701787018</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1752</c:v>
+                  <c:v>1.7520175201752017</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1835</c:v>
+                  <c:v>1.8350183501835018</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1818</c:v>
+                  <c:v>1.8180181801818018</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1741</c:v>
+                  <c:v>1.7410174101741018</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1902</c:v>
+                  <c:v>1.9020190201902019</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1889</c:v>
+                  <c:v>1.889018890188902</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1849</c:v>
+                  <c:v>1.8490184901849018</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1858</c:v>
+                  <c:v>1.858018580185802</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1795</c:v>
+                  <c:v>1.7950179501795018</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1843</c:v>
+                  <c:v>1.8430184301843018</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1831</c:v>
+                  <c:v>1.8310183101831019</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1769</c:v>
+                  <c:v>1.7690176901769019</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1834</c:v>
+                  <c:v>1.8340183401834016</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1779</c:v>
+                  <c:v>1.7790177901779016</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1728</c:v>
+                  <c:v>1.7280172801728018</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1664</c:v>
+                  <c:v>1.6640166401664016</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1615</c:v>
+                  <c:v>1.6150161501615017</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1638</c:v>
+                  <c:v>1.6380163801638017</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1617</c:v>
+                  <c:v>1.6170161701617016</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1516</c:v>
+                  <c:v>1.5160151601516016</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1546</c:v>
+                  <c:v>1.5460154601546015</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1461</c:v>
+                  <c:v>1.4610146101461015</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1370</c:v>
+                  <c:v>1.3700137001370012</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1334</c:v>
+                  <c:v>1.3340133401334013</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1333</c:v>
+                  <c:v>1.3330133301333014</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1218</c:v>
+                  <c:v>1.2180121801218013</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1168</c:v>
+                  <c:v>1.168011680116801</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1166</c:v>
+                  <c:v>1.1660116601166011</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1044</c:v>
+                  <c:v>1.044010440104401</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1050</c:v>
+                  <c:v>1.0500105001050011</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1036</c:v>
+                  <c:v>1.036010360103601</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>946</c:v>
+                  <c:v>0.94600946009460085</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>861</c:v>
+                  <c:v>0.86100861008610086</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>854</c:v>
+                  <c:v>0.85400854008540095</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>782</c:v>
+                  <c:v>0.7820078200782008</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>717</c:v>
+                  <c:v>0.71700717007170067</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>676</c:v>
+                  <c:v>0.67600676006760074</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>642</c:v>
+                  <c:v>0.64200642006420061</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>568</c:v>
+                  <c:v>0.56800568005680052</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>503</c:v>
+                  <c:v>0.50300503005030051</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>512</c:v>
+                  <c:v>0.51200512005120047</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>472</c:v>
+                  <c:v>0.47200472004720051</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>424</c:v>
+                  <c:v>0.42400424004240039</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>383</c:v>
+                  <c:v>0.38300383003830035</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>348</c:v>
+                  <c:v>0.34800348003480036</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>324</c:v>
+                  <c:v>0.32400324003240033</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>309</c:v>
+                  <c:v>0.30900309003090032</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>272</c:v>
+                  <c:v>0.27200272002720027</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>236</c:v>
+                  <c:v>0.23600236002360026</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>207</c:v>
+                  <c:v>0.20700207002070017</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>224</c:v>
+                  <c:v>0.22400224002240024</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>161</c:v>
+                  <c:v>0.16100161001610017</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>161</c:v>
+                  <c:v>0.16100161001610017</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>128</c:v>
+                  <c:v>0.12800128001280012</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>117</c:v>
+                  <c:v>0.11700117001170011</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>103</c:v>
+                  <c:v>0.10300103001030012</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>95</c:v>
+                  <c:v>9.5000950009500096E-2</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>84</c:v>
+                  <c:v>8.4000840008400079E-2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>69</c:v>
+                  <c:v>6.9000690006900067E-2</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>72</c:v>
+                  <c:v>7.2000720007200064E-2</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>62</c:v>
+                  <c:v>6.2000620006200061E-2</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>67</c:v>
+                  <c:v>6.7000670006700069E-2</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>36</c:v>
+                  <c:v>3.6000360003600032E-2</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>45</c:v>
+                  <c:v>4.5000450004500044E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>25</c:v>
+                  <c:v>2.5000250002500023E-2</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>21</c:v>
+                  <c:v>2.100021000210002E-2</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>22</c:v>
+                  <c:v>2.2000220002200022E-2</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>21</c:v>
+                  <c:v>2.100021000210002E-2</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>13</c:v>
+                  <c:v>1.3000130001300013E-2</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>26</c:v>
+                  <c:v>2.6000260002600025E-2</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>14</c:v>
+                  <c:v>1.4000140001400015E-2</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>6</c:v>
+                  <c:v>6.0000600006000059E-3</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>9</c:v>
+                  <c:v>9.000090000900008E-3</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>11</c:v>
+                  <c:v>1.1000110001100011E-2</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>10</c:v>
+                  <c:v>1.000010000100001E-2</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>5</c:v>
+                  <c:v>5.0000500005000052E-3</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2</c:v>
+                  <c:v>2.0000200002000018E-3</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3</c:v>
+                  <c:v>3.000030000300003E-3</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2</c:v>
+                  <c:v>2.0000200002000018E-3</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>4</c:v>
+                  <c:v>4.0000400004000037E-3</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2</c:v>
+                  <c:v>2.0000200002000018E-3</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3</c:v>
+                  <c:v>3.000030000300003E-3</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1</c:v>
+                  <c:v>1.0000100001000009E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,7 +1214,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="494430424"/>
         <c:axId val="494432224"/>
         <c:extLst>
@@ -2317,6 +2279,548 @@
           </c:ext>
         </c:extLst>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$166</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0000_-;\-* #,##0.0000_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="165"/>
+                <c:pt idx="0">
+                  <c:v>1.0000100001000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.000030000300003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000500005000044E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000800008000073E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000100001000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2000120001200012E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3000130001300013E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4000140001400013E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5000150001500014E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9000190001900018E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.100021000210002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4000240002400024E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1000310003100027E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8000380003800037E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5000450004500044E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.9000590005900057E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9000690006900067E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.6000860008600077E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.10100101001010009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1140011400114001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13000130001300012</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14900149001490012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.17100171001710016</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.18500185001850017</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.21400214002140019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24500245002450022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27000270002700022</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.30600306003060029</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.3500035000350003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.40000400004000036</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.45500455004550039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.52600526005260051</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.60900609006090056</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.69700697006970069</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.78300783007830077</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.87900879008790078</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99300993009930094</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1260112601126011</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2630126301263012</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4080140801408012</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5700157001570014</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7520175201752015</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.9530195301953017</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.1850218502185021</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.4250242502425023</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.6940269402694024</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.0130301303013027</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3410334103341031</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.7040370403704035</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.0770407704077041</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.5100451004510038</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9450494504945048</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.4460544605446053</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.9740597405974052</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.5200652006520059</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.1200712007120064</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.7830778307783071</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.466084660846608</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.1570915709157088</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.921099210992109</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10.777107771077709</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.676116761167611</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.654126541265411</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.631136311363113</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.672146721467213</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15.745157451574514</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.891168911689114</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18.032180321803217</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19.255192551925518</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>20.520205202052018</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21.870218702187021</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>23.26023260232602</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24.740247402474022</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>26.153261532615325</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>27.672276722767226</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>29.189291892918927</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>30.843308433084328</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>32.452324523245231</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34.181341813418129</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>35.869358693586932</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>37.553375533755336</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>39.340393403934037</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41.092410924109238</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42.927429274292741</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44.745447454474544</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>46.486464864648646</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>48.388483884838841</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>50.277502775027749</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>52.126521265212645</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>53.984539845398452</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>55.779557795577951</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>57.622576225762252</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>59.453594535945356</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>61.222612226122259</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>63.056630566305657</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>64.83564835648356</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>66.563665636656367</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>68.227682276822762</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>69.842698426984271</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>71.480714807148061</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>73.097730977309766</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>74.613746137461362</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>76.159761597615969</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>77.620776207762077</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>78.990789907899071</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>80.324803248032467</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>81.657816578165779</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>82.875828758287582</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>84.043840438404374</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>85.209852098520983</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>86.253862538625384</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>87.303873038730373</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>88.339883398833976</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>89.285892858928577</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>90.146901469014679</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>91.000910009100082</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>91.782917829178288</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>92.499924999249984</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>93.175931759317592</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>93.817938179381784</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>94.385943859438584</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>94.888948889488887</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>95.400954009540087</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>95.872958729587282</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>96.296962969629689</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>96.679966799667994</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>97.027970279702785</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>97.351973519735182</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>97.660976609766095</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>97.932979329793284</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>98.168981689816889</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>98.375983759837595</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>98.599985999859996</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>98.760987609876096</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>98.921989219892197</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>99.049990499904993</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>99.166991669916698</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>99.269992699926988</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>99.364993649936494</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>99.448994489944894</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>99.517995179951797</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>99.589995899958993</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>99.651996519965195</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>99.718997189971887</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>99.754997549975485</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>99.799997999979993</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>99.824998249982485</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>99.845998459984585</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>99.867998679986798</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>99.888998889988898</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>99.901999019990186</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>99.92799927999279</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>99.94199941999419</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>99.947999479994792</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>99.956999569995688</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>99.967999679996794</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>99.977999779997788</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>99.982999829998292</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>99.984999849998488</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>99.987999879998796</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>99.989999899998992</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>99.993999939999398</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>99.995999959999594</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>99.998999989999888</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>99.999999999999986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-014F-4AF7-82B4-9A0054EC1B2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="606491048"/>
+        <c:axId val="507172768"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="494430424"/>
         <c:scaling>
@@ -2389,7 +2893,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2424,6 +2928,64 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="507172768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606491048"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="606491048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="507172768"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3378,8 +3940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3424,7 +3986,10 @@
         <f>(100/D$166)*D2</f>
         <v>1.0000100001000009E-3</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5">
+        <f>C2/SUM($C$2:$C$166)*100</f>
+        <v>1.0000100001000009E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -3437,11 +4002,15 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f>D2+C2</f>
-        <v>2</v>
+        <f>C3+D2</f>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E66" si="0">(100/D$166)*D3</f>
+        <v>3.000030000300003E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F66" si="1">C3/SUM($C$2:$C$166)*100</f>
         <v>2.0000200002000018E-3</v>
       </c>
     </row>
@@ -3456,12 +4025,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <f>D3+C3</f>
-        <v>4</v>
+        <f>C4+D3</f>
+        <v>5</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>4.0000400004000037E-3</v>
+        <v>5.0000500005000044E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0000200002000018E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3475,12 +4048,16 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D68" si="1">D4+C4</f>
-        <v>6</v>
+        <f t="shared" ref="D4:D67" si="2">C5+D4</f>
+        <v>8</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>6.0000600006000059E-3</v>
+        <v>8.0000800008000073E-3</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>3.000030000300003E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3494,12 +4071,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>9.000090000900008E-3</v>
+        <v>1.0000100001000009E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0000200002000018E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3513,12 +4094,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>1.1000110001100009E-2</v>
+        <v>1.2000120001200012E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0000200002000018E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3532,13 +4117,17 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>1.3000130001300013E-2</v>
       </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0000100001000009E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -3551,13 +4140,17 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>1.4000140001400013E-2</v>
       </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0000100001000009E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -3570,13 +4163,17 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>1.5000150001500014E-2</v>
       </c>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0000100001000009E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -3589,12 +4186,16 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>1.6000160001600015E-2</v>
+        <v>1.9000190001900018E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="1"/>
+        <v>4.0000400004000037E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3608,12 +4209,16 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>2.0000200002000017E-2</v>
+        <v>2.100021000210002E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0000200002000018E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3627,12 +4232,16 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>2.2000220002200019E-2</v>
+        <v>2.4000240002400024E-2</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>3.000030000300003E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3646,12 +4255,16 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>2.5000250002500023E-2</v>
+        <v>3.1000310003100027E-2</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="1"/>
+        <v>7.0000700007000075E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3665,12 +4278,16 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>3.2000320003200029E-2</v>
+        <v>3.8000380003800037E-2</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="1"/>
+        <v>7.0000700007000075E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3684,15 +4301,19 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>3.9000390003900036E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.5000450004500044E-2</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="1"/>
+        <v>7.0000700007000075E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>127</v>
       </c>
@@ -3703,15 +4324,19 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>59</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>4.6000460004600043E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.9000590005900057E-2</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="1"/>
+        <v>1.4000140001400015E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>77</v>
       </c>
@@ -3722,15 +4347,19 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f t="shared" si="2"/>
+        <v>69</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>6.0000600006000056E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.9000690006900067E-2</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="1"/>
+        <v>1.000010000100001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>112</v>
       </c>
@@ -3741,15 +4370,19 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>86</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>7.0000700007000066E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.6000860008600077E-2</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7000170001700017E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>146</v>
       </c>
@@ -3760,15 +4393,19 @@
         <v>15</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
-        <v>87</v>
+        <f t="shared" si="2"/>
+        <v>101</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>8.7000870008700076E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.10100101001010009</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="1"/>
+        <v>1.5000150001500014E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>121</v>
       </c>
@@ -3779,15 +4416,19 @@
         <v>13</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
-        <v>102</v>
+        <f t="shared" si="2"/>
+        <v>114</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>0.10200102001020009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1140011400114001</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3000130001300013E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>122</v>
       </c>
@@ -3798,15 +4439,19 @@
         <v>16</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
-        <v>115</v>
+        <f t="shared" si="2"/>
+        <v>130</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>0.1150011500115001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.13000130001300012</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="1"/>
+        <v>1.6000160001600015E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>129</v>
       </c>
@@ -3817,15 +4462,19 @@
         <v>19</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
-        <v>131</v>
+        <f t="shared" si="2"/>
+        <v>149</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>0.13100131001310011</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.14900149001490012</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9000190001900018E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>125</v>
       </c>
@@ -3836,15 +4485,19 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>171</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>0.15000150001500015</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.17100171001710016</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2000220002200022E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>153</v>
       </c>
@@ -3855,15 +4508,19 @@
         <v>14</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
-        <v>172</v>
+        <f t="shared" si="2"/>
+        <v>185</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>0.17200172001720015</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.18500185001850017</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="1"/>
+        <v>1.4000140001400015E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>126</v>
       </c>
@@ -3874,15 +4531,19 @@
         <v>29</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
-        <v>186</v>
+        <f t="shared" si="2"/>
+        <v>214</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>0.18600186001860017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.21400214002140019</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="1"/>
+        <v>2.9000290002900032E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>98</v>
       </c>
@@ -3893,15 +4554,19 @@
         <v>31</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
-        <v>215</v>
+        <f t="shared" si="2"/>
+        <v>245</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>0.21500215002150019</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.24500245002450022</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="1"/>
+        <v>3.100031000310003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>130</v>
       </c>
@@ -3912,15 +4577,19 @@
         <v>25</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
-        <v>246</v>
+        <f t="shared" si="2"/>
+        <v>270</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>0.24600246002460022</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.27000270002700022</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5000250002500023E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>117</v>
       </c>
@@ -3931,15 +4600,19 @@
         <v>36</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
-        <v>271</v>
+        <f t="shared" si="2"/>
+        <v>306</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>0.27100271002710025</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.30600306003060029</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="1"/>
+        <v>3.6000360003600032E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>107</v>
       </c>
@@ -3950,15 +4623,19 @@
         <v>44</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
-        <v>307</v>
+        <f t="shared" si="2"/>
+        <v>350</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>0.30700307003070026</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.3500035000350003</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="1"/>
+        <v>4.4000440004400045E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>140</v>
       </c>
@@ -3969,15 +4646,19 @@
         <v>50</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
-        <v>351</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>0.35100351003510033</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.40000400004000036</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="1"/>
+        <v>5.0000500005000045E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>108</v>
       </c>
@@ -3988,15 +4669,19 @@
         <v>55</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
-        <v>401</v>
+        <f t="shared" si="2"/>
+        <v>455</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>0.40100401004010039</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.45500455004550039</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="1"/>
+        <v>5.5000550005500054E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>115</v>
       </c>
@@ -4007,15 +4692,19 @@
         <v>71</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
-        <v>456</v>
+        <f t="shared" si="2"/>
+        <v>526</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
-        <v>0.45600456004560042</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.52600526005260051</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="1"/>
+        <v>7.1000710007100065E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>132</v>
       </c>
@@ -4026,15 +4715,19 @@
         <v>83</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
-        <v>527</v>
+        <f t="shared" si="2"/>
+        <v>609</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="0"/>
-        <v>0.52700527005270048</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.60900609006090056</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="1"/>
+        <v>8.3000830008300081E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>85</v>
       </c>
@@ -4045,15 +4738,19 @@
         <v>88</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
-        <v>610</v>
+        <f t="shared" si="2"/>
+        <v>697</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>0.61000610006100053</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.69700697006970069</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="1"/>
+        <v>8.8000880008800089E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>65</v>
       </c>
@@ -4064,15 +4761,19 @@
         <v>86</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
-        <v>698</v>
+        <f t="shared" si="2"/>
+        <v>783</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="0"/>
-        <v>0.69800698006980066</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.78300783007830077</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="1"/>
+        <v>8.6000860008600091E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>71</v>
       </c>
@@ -4083,15 +4784,19 @@
         <v>96</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
-        <v>784</v>
+        <f t="shared" si="2"/>
+        <v>879</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="0"/>
-        <v>0.78400784007840074</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.87900879008790078</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="1"/>
+        <v>9.6000960009600095E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>92</v>
       </c>
@@ -4102,15 +4807,19 @@
         <v>114</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
-        <v>880</v>
+        <f t="shared" si="2"/>
+        <v>993</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="0"/>
-        <v>0.88000880008800075</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.99300993009930094</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="1"/>
+        <v>0.11400114001140012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>103</v>
       </c>
@@ -4121,15 +4830,19 @@
         <v>133</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
-        <v>994</v>
+        <f t="shared" si="2"/>
+        <v>1126</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="0"/>
-        <v>0.99400994009940091</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.1260112601126011</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="1"/>
+        <v>0.13300133001330011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4140,15 +4853,19 @@
         <v>137</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
-        <v>1127</v>
+        <f t="shared" si="2"/>
+        <v>1263</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="0"/>
-        <v>1.1270112701127011</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.2630126301263012</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="1"/>
+        <v>0.13700137001370014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -4159,15 +4876,19 @@
         <v>145</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
-        <v>1264</v>
+        <f t="shared" si="2"/>
+        <v>1408</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="0"/>
-        <v>1.2640126401264011</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.4080140801408012</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="1"/>
+        <v>0.14500145001450016</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>88</v>
       </c>
@@ -4178,15 +4899,19 @@
         <v>162</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
-        <v>1409</v>
+        <f t="shared" si="2"/>
+        <v>1570</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="0"/>
-        <v>1.4090140901409014</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.5700157001570014</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16200162001620017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>95</v>
       </c>
@@ -4197,15 +4922,19 @@
         <v>182</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
-        <v>1571</v>
+        <f t="shared" si="2"/>
+        <v>1752</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="0"/>
-        <v>1.5710157101571014</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.7520175201752015</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="1"/>
+        <v>0.1820018200182002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>114</v>
       </c>
@@ -4216,15 +4945,19 @@
         <v>201</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
-        <v>1753</v>
+        <f t="shared" si="2"/>
+        <v>1953</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="0"/>
-        <v>1.7530175301753017</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.9530195301953017</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="1"/>
+        <v>0.20100201002010021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>100</v>
       </c>
@@ -4235,15 +4968,19 @@
         <v>232</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
-        <v>1954</v>
+        <f t="shared" si="2"/>
+        <v>2185</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="0"/>
-        <v>1.9540195401954017</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.1850218502185021</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="1"/>
+        <v>0.23200232002320026</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>76</v>
       </c>
@@ -4254,15 +4991,19 @@
         <v>240</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
-        <v>2186</v>
+        <f t="shared" si="2"/>
+        <v>2425</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="0"/>
-        <v>2.1860218602186019</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.4250242502425023</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="1"/>
+        <v>0.24000240002400022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>86</v>
       </c>
@@ -4273,15 +5014,19 @@
         <v>269</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
-        <v>2426</v>
+        <f t="shared" si="2"/>
+        <v>2694</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="0"/>
-        <v>2.4260242602426021</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.6940269402694024</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="1"/>
+        <v>0.2690026900269003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>93</v>
       </c>
@@ -4292,15 +5037,19 @@
         <v>319</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
-        <v>2695</v>
+        <f t="shared" si="2"/>
+        <v>3013</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="0"/>
-        <v>2.6950269502695026</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.0130301303013027</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="1"/>
+        <v>0.31900319003190031</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -4311,15 +5060,19 @@
         <v>328</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
-        <v>3014</v>
+        <f t="shared" si="2"/>
+        <v>3341</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="0"/>
-        <v>3.0140301403014029</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.3410334103341031</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="1"/>
+        <v>0.32800328003280033</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>11</v>
       </c>
@@ -4330,15 +5083,19 @@
         <v>363</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
-        <v>3342</v>
+        <f t="shared" si="2"/>
+        <v>3704</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="0"/>
-        <v>3.3420334203342033</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.7040370403704035</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" si="1"/>
+        <v>0.36300363003630037</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>83</v>
       </c>
@@ -4349,15 +5106,19 @@
         <v>373</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
-        <v>3705</v>
+        <f t="shared" si="2"/>
+        <v>4077</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="0"/>
-        <v>3.7050370503705032</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.0770407704077041</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="1"/>
+        <v>0.37300373003730036</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>89</v>
       </c>
@@ -4368,15 +5129,19 @@
         <v>433</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
-        <v>4078</v>
+        <f t="shared" si="2"/>
+        <v>4510</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="0"/>
-        <v>4.0780407804078038</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.5100451004510038</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" si="1"/>
+        <v>0.43300433004330047</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>23</v>
       </c>
@@ -4387,15 +5152,19 @@
         <v>435</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
-        <v>4511</v>
+        <f t="shared" si="2"/>
+        <v>4945</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="0"/>
-        <v>4.5110451104511045</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.9450494504945048</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" si="1"/>
+        <v>0.43500435004350047</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>63</v>
       </c>
@@ -4406,15 +5175,19 @@
         <v>501</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
-        <v>4946</v>
+        <f t="shared" si="2"/>
+        <v>5446</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="0"/>
-        <v>4.9460494604946046</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.4460544605446053</v>
+      </c>
+      <c r="F54" s="5">
+        <f t="shared" si="1"/>
+        <v>0.50100501005010056</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>87</v>
       </c>
@@ -4425,15 +5198,19 @@
         <v>528</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
-        <v>5447</v>
+        <f t="shared" si="2"/>
+        <v>5974</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="0"/>
-        <v>5.447054470544705</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.9740597405974052</v>
+      </c>
+      <c r="F55" s="5">
+        <f t="shared" si="1"/>
+        <v>0.52800528005280056</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>49</v>
       </c>
@@ -4444,15 +5221,19 @@
         <v>546</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
-        <v>5975</v>
+        <f t="shared" si="2"/>
+        <v>6520</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="0"/>
-        <v>5.9750597505975058</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.5200652006520059</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="1"/>
+        <v>0.54600546005460049</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>109</v>
       </c>
@@ -4463,15 +5244,19 @@
         <v>600</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
-        <v>6521</v>
+        <f t="shared" si="2"/>
+        <v>7120</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" si="0"/>
-        <v>6.5210652106521056</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.1200712007120064</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="1"/>
+        <v>0.6000060000600006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>74</v>
       </c>
@@ -4482,15 +5267,19 @@
         <v>663</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
-        <v>7121</v>
+        <f t="shared" si="2"/>
+        <v>7783</v>
       </c>
       <c r="E58" s="2">
         <f t="shared" si="0"/>
-        <v>7.1210712107121061</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.7830778307783071</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" si="1"/>
+        <v>0.66300663006630067</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>25</v>
       </c>
@@ -4501,15 +5290,19 @@
         <v>683</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
-        <v>7784</v>
+        <f t="shared" si="2"/>
+        <v>8466</v>
       </c>
       <c r="E59" s="2">
         <f t="shared" si="0"/>
-        <v>7.7840778407784068</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.466084660846608</v>
+      </c>
+      <c r="F59" s="5">
+        <f t="shared" si="1"/>
+        <v>0.68300683006830065</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>22</v>
       </c>
@@ -4520,15 +5313,19 @@
         <v>691</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
-        <v>8467</v>
+        <f t="shared" si="2"/>
+        <v>9157</v>
       </c>
       <c r="E60" s="2">
         <f t="shared" si="0"/>
-        <v>8.4670846708467078</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.1570915709157088</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="1"/>
+        <v>0.69100691006910075</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>52</v>
       </c>
@@ -4539,15 +5336,19 @@
         <v>764</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
-        <v>9158</v>
+        <f t="shared" si="2"/>
+        <v>9921</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" si="0"/>
-        <v>9.1580915809158085</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.921099210992109</v>
+      </c>
+      <c r="F61" s="5">
+        <f t="shared" si="1"/>
+        <v>0.76400764007640076</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>94</v>
       </c>
@@ -4558,15 +5359,19 @@
         <v>856</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
-        <v>9922</v>
+        <f t="shared" si="2"/>
+        <v>10777</v>
       </c>
       <c r="E62" s="2">
         <f t="shared" si="0"/>
-        <v>9.9220992209922088</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10.777107771077709</v>
+      </c>
+      <c r="F62" s="5">
+        <f t="shared" si="1"/>
+        <v>0.85600856008560089</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>39</v>
       </c>
@@ -4577,15 +5382,19 @@
         <v>899</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
-        <v>10778</v>
+        <f t="shared" si="2"/>
+        <v>11676</v>
       </c>
       <c r="E63" s="2">
         <f t="shared" si="0"/>
-        <v>10.778107781077809</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11.676116761167611</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" si="1"/>
+        <v>0.89900899008990098</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>42</v>
       </c>
@@ -4596,15 +5405,19 @@
         <v>978</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
-        <v>11677</v>
+        <f t="shared" si="2"/>
+        <v>12654</v>
       </c>
       <c r="E64" s="2">
         <f t="shared" si="0"/>
-        <v>11.677116771167711</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12.654126541265411</v>
+      </c>
+      <c r="F64" s="5">
+        <f t="shared" si="1"/>
+        <v>0.97800978009780093</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>32</v>
       </c>
@@ -4615,15 +5428,19 @@
         <v>977</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
-        <v>12655</v>
+        <f t="shared" si="2"/>
+        <v>13631</v>
       </c>
       <c r="E65" s="2">
         <f t="shared" si="0"/>
-        <v>12.655126551265512</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13.631136311363113</v>
+      </c>
+      <c r="F65" s="5">
+        <f t="shared" si="1"/>
+        <v>0.97700977009770096</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>59</v>
       </c>
@@ -4634,15 +5451,19 @@
         <v>1041</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
-        <v>13632</v>
+        <f t="shared" si="2"/>
+        <v>14672</v>
       </c>
       <c r="E66" s="2">
         <f t="shared" si="0"/>
-        <v>13.632136321363213</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14.672146721467213</v>
+      </c>
+      <c r="F66" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0410104101041011</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>21</v>
       </c>
@@ -4653,15 +5474,19 @@
         <v>1073</v>
       </c>
       <c r="D67">
-        <f t="shared" si="1"/>
-        <v>14673</v>
+        <f t="shared" si="2"/>
+        <v>15745</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E130" si="2">(100/D$166)*D67</f>
-        <v>14.673146731467314</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E67:E130" si="3">(100/D$166)*D67</f>
+        <v>15.745157451574514</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" ref="F67:F130" si="4">C67/SUM($C$2:$C$166)*100</f>
+        <v>1.0730107301073011</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>8</v>
       </c>
@@ -4672,15 +5497,19 @@
         <v>1146</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
-        <v>15746</v>
+        <f t="shared" ref="D68:D131" si="5">C68+D67</f>
+        <v>16891</v>
       </c>
       <c r="E68" s="2">
-        <f t="shared" si="2"/>
-        <v>15.746157461574615</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>16.891168911689114</v>
+      </c>
+      <c r="F68" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1460114601146012</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>6</v>
       </c>
@@ -4691,15 +5520,19 @@
         <v>1141</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D132" si="3">D68+C68</f>
-        <v>16892</v>
+        <f t="shared" si="5"/>
+        <v>18032</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" si="2"/>
-        <v>16.892168921689215</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>18.032180321803217</v>
+      </c>
+      <c r="F69" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1410114101141011</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>37</v>
       </c>
@@ -4710,15 +5543,19 @@
         <v>1223</v>
       </c>
       <c r="D70">
+        <f t="shared" si="5"/>
+        <v>19255</v>
+      </c>
+      <c r="E70" s="2">
         <f t="shared" si="3"/>
-        <v>18033</v>
-      </c>
-      <c r="E70" s="2">
-        <f t="shared" si="2"/>
-        <v>18.033180331803315</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19.255192551925518</v>
+      </c>
+      <c r="F70" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2230122301223012</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>58</v>
       </c>
@@ -4729,15 +5566,19 @@
         <v>1265</v>
       </c>
       <c r="D71">
+        <f t="shared" si="5"/>
+        <v>20520</v>
+      </c>
+      <c r="E71" s="2">
         <f t="shared" si="3"/>
-        <v>19256</v>
-      </c>
-      <c r="E71" s="2">
-        <f t="shared" si="2"/>
-        <v>19.256192561925619</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.520205202052018</v>
+      </c>
+      <c r="F71" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2650126501265013</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>9</v>
       </c>
@@ -4748,15 +5589,19 @@
         <v>1350</v>
       </c>
       <c r="D72">
+        <f t="shared" si="5"/>
+        <v>21870</v>
+      </c>
+      <c r="E72" s="2">
         <f t="shared" si="3"/>
-        <v>20521</v>
-      </c>
-      <c r="E72" s="2">
-        <f t="shared" si="2"/>
-        <v>20.52120521205212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.870218702187021</v>
+      </c>
+      <c r="F72" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3500135001350013</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>17</v>
       </c>
@@ -4767,15 +5612,19 @@
         <v>1390</v>
       </c>
       <c r="D73">
+        <f t="shared" si="5"/>
+        <v>23260</v>
+      </c>
+      <c r="E73" s="2">
         <f t="shared" si="3"/>
-        <v>21871</v>
-      </c>
-      <c r="E73" s="2">
-        <f t="shared" si="2"/>
-        <v>21.871218712187119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23.26023260232602</v>
+      </c>
+      <c r="F73" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3900139001390013</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44</v>
       </c>
@@ -4786,15 +5635,19 @@
         <v>1480</v>
       </c>
       <c r="D74">
+        <f t="shared" si="5"/>
+        <v>24740</v>
+      </c>
+      <c r="E74" s="2">
         <f t="shared" si="3"/>
-        <v>23261</v>
-      </c>
-      <c r="E74" s="2">
-        <f t="shared" si="2"/>
-        <v>23.261232612326122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24.740247402474022</v>
+      </c>
+      <c r="F74" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4800148001480016</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>16</v>
       </c>
@@ -4805,15 +5658,19 @@
         <v>1413</v>
       </c>
       <c r="D75">
+        <f t="shared" si="5"/>
+        <v>26153</v>
+      </c>
+      <c r="E75" s="2">
         <f t="shared" si="3"/>
-        <v>24741</v>
-      </c>
-      <c r="E75" s="2">
-        <f t="shared" si="2"/>
-        <v>24.741247412474124</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.153261532615325</v>
+      </c>
+      <c r="F75" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4130141301413015</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>30</v>
       </c>
@@ -4824,15 +5681,19 @@
         <v>1519</v>
       </c>
       <c r="D76">
+        <f t="shared" si="5"/>
+        <v>27672</v>
+      </c>
+      <c r="E76" s="2">
         <f t="shared" si="3"/>
-        <v>26154</v>
-      </c>
-      <c r="E76" s="2">
-        <f t="shared" si="2"/>
-        <v>26.154261542615423</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.672276722767226</v>
+      </c>
+      <c r="F76" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5190151901519016</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -4843,15 +5704,19 @@
         <v>1517</v>
       </c>
       <c r="D77">
+        <f t="shared" si="5"/>
+        <v>29189</v>
+      </c>
+      <c r="E77" s="2">
         <f t="shared" si="3"/>
-        <v>27673</v>
-      </c>
-      <c r="E77" s="2">
-        <f t="shared" si="2"/>
-        <v>27.673276732767324</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.189291892918927</v>
+      </c>
+      <c r="F77" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5170151701517014</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>62</v>
       </c>
@@ -4862,15 +5727,19 @@
         <v>1654</v>
       </c>
       <c r="D78">
+        <f t="shared" si="5"/>
+        <v>30843</v>
+      </c>
+      <c r="E78" s="2">
         <f t="shared" si="3"/>
-        <v>29190</v>
-      </c>
-      <c r="E78" s="2">
-        <f t="shared" si="2"/>
-        <v>29.190291902919025</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.843308433084328</v>
+      </c>
+      <c r="F78" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6540165401654019</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>50</v>
       </c>
@@ -4881,15 +5750,19 @@
         <v>1609</v>
       </c>
       <c r="D79">
+        <f t="shared" si="5"/>
+        <v>32452</v>
+      </c>
+      <c r="E79" s="2">
         <f t="shared" si="3"/>
-        <v>30844</v>
-      </c>
-      <c r="E79" s="2">
-        <f t="shared" si="2"/>
-        <v>30.844308443084429</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32.452324523245231</v>
+      </c>
+      <c r="F79" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6090160901609016</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -4900,15 +5773,19 @@
         <v>1729</v>
       </c>
       <c r="D80">
+        <f t="shared" si="5"/>
+        <v>34181</v>
+      </c>
+      <c r="E80" s="2">
         <f t="shared" si="3"/>
-        <v>32453</v>
-      </c>
-      <c r="E80" s="2">
-        <f t="shared" si="2"/>
-        <v>32.453324533245329</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34.181341813418129</v>
+      </c>
+      <c r="F80" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7290172901729017</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>48</v>
       </c>
@@ -4919,15 +5796,19 @@
         <v>1688</v>
       </c>
       <c r="D81">
+        <f t="shared" si="5"/>
+        <v>35869</v>
+      </c>
+      <c r="E81" s="2">
         <f t="shared" si="3"/>
-        <v>34182</v>
-      </c>
-      <c r="E81" s="2">
-        <f t="shared" si="2"/>
-        <v>34.182341823418234</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35.869358693586932</v>
+      </c>
+      <c r="F81" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6880168801688016</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>5</v>
       </c>
@@ -4938,15 +5819,19 @@
         <v>1684</v>
       </c>
       <c r="D82">
+        <f t="shared" si="5"/>
+        <v>37553</v>
+      </c>
+      <c r="E82" s="2">
         <f t="shared" si="3"/>
-        <v>35870</v>
-      </c>
-      <c r="E82" s="2">
-        <f t="shared" si="2"/>
-        <v>35.87035870358703</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37.553375533755336</v>
+      </c>
+      <c r="F82" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6840168401684019</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>47</v>
       </c>
@@ -4957,15 +5842,19 @@
         <v>1787</v>
       </c>
       <c r="D83">
+        <f t="shared" si="5"/>
+        <v>39340</v>
+      </c>
+      <c r="E83" s="2">
         <f t="shared" si="3"/>
-        <v>37554</v>
-      </c>
-      <c r="E83" s="2">
-        <f t="shared" si="2"/>
-        <v>37.554375543755434</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.340393403934037</v>
+      </c>
+      <c r="F83" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7870178701787018</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>53</v>
       </c>
@@ -4976,15 +5865,19 @@
         <v>1752</v>
       </c>
       <c r="D84">
+        <f t="shared" si="5"/>
+        <v>41092</v>
+      </c>
+      <c r="E84" s="2">
         <f t="shared" si="3"/>
-        <v>39341</v>
-      </c>
-      <c r="E84" s="2">
-        <f t="shared" si="2"/>
-        <v>39.341393413934135</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41.092410924109238</v>
+      </c>
+      <c r="F84" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7520175201752017</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>54</v>
       </c>
@@ -4995,15 +5888,19 @@
         <v>1835</v>
       </c>
       <c r="D85">
+        <f t="shared" si="5"/>
+        <v>42927</v>
+      </c>
+      <c r="E85" s="2">
         <f t="shared" si="3"/>
-        <v>41093</v>
-      </c>
-      <c r="E85" s="2">
-        <f t="shared" si="2"/>
-        <v>41.093410934109336</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42.927429274292741</v>
+      </c>
+      <c r="F85" s="5">
+        <f t="shared" si="4"/>
+        <v>1.8350183501835018</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2</v>
       </c>
@@ -5014,15 +5911,19 @@
         <v>1818</v>
       </c>
       <c r="D86">
+        <f t="shared" si="5"/>
+        <v>44745</v>
+      </c>
+      <c r="E86" s="2">
         <f t="shared" si="3"/>
-        <v>42928</v>
-      </c>
-      <c r="E86" s="2">
-        <f t="shared" si="2"/>
-        <v>42.928429284292839</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44.745447454474544</v>
+      </c>
+      <c r="F86" s="5">
+        <f t="shared" si="4"/>
+        <v>1.8180181801818018</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>68</v>
       </c>
@@ -5033,15 +5934,19 @@
         <v>1741</v>
       </c>
       <c r="D87">
+        <f t="shared" si="5"/>
+        <v>46486</v>
+      </c>
+      <c r="E87" s="2">
         <f t="shared" si="3"/>
-        <v>44746</v>
-      </c>
-      <c r="E87" s="2">
-        <f t="shared" si="2"/>
-        <v>44.746447464474642</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46.486464864648646</v>
+      </c>
+      <c r="F87" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7410174101741018</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>33</v>
       </c>
@@ -5052,15 +5957,19 @@
         <v>1902</v>
       </c>
       <c r="D88">
+        <f t="shared" si="5"/>
+        <v>48388</v>
+      </c>
+      <c r="E88" s="2">
         <f t="shared" si="3"/>
-        <v>46487</v>
-      </c>
-      <c r="E88" s="2">
-        <f t="shared" si="2"/>
-        <v>46.487464874648744</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48.388483884838841</v>
+      </c>
+      <c r="F88" s="5">
+        <f t="shared" si="4"/>
+        <v>1.9020190201902019</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>46</v>
       </c>
@@ -5071,15 +5980,19 @@
         <v>1889</v>
       </c>
       <c r="D89">
+        <f t="shared" si="5"/>
+        <v>50277</v>
+      </c>
+      <c r="E89" s="2">
         <f t="shared" si="3"/>
-        <v>48389</v>
-      </c>
-      <c r="E89" s="2">
-        <f t="shared" si="2"/>
-        <v>48.389483894838946</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50.277502775027749</v>
+      </c>
+      <c r="F89" s="5">
+        <f t="shared" si="4"/>
+        <v>1.889018890188902</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>27</v>
       </c>
@@ -5090,15 +6003,19 @@
         <v>1849</v>
       </c>
       <c r="D90">
+        <f t="shared" si="5"/>
+        <v>52126</v>
+      </c>
+      <c r="E90" s="2">
         <f t="shared" si="3"/>
-        <v>50278</v>
-      </c>
-      <c r="E90" s="2">
-        <f t="shared" si="2"/>
-        <v>50.278502785027847</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52.126521265212645</v>
+      </c>
+      <c r="F90" s="5">
+        <f t="shared" si="4"/>
+        <v>1.8490184901849018</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>12</v>
       </c>
@@ -5109,15 +6026,19 @@
         <v>1858</v>
       </c>
       <c r="D91">
+        <f t="shared" si="5"/>
+        <v>53984</v>
+      </c>
+      <c r="E91" s="2">
         <f t="shared" si="3"/>
-        <v>52127</v>
-      </c>
-      <c r="E91" s="2">
-        <f t="shared" si="2"/>
-        <v>52.12752127521275</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53.984539845398452</v>
+      </c>
+      <c r="F91" s="5">
+        <f t="shared" si="4"/>
+        <v>1.858018580185802</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>36</v>
       </c>
@@ -5128,15 +6049,19 @@
         <v>1795</v>
       </c>
       <c r="D92">
+        <f t="shared" si="5"/>
+        <v>55779</v>
+      </c>
+      <c r="E92" s="2">
         <f t="shared" si="3"/>
-        <v>53985</v>
-      </c>
-      <c r="E92" s="2">
-        <f t="shared" si="2"/>
-        <v>53.985539855398549</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55.779557795577951</v>
+      </c>
+      <c r="F92" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7950179501795018</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>34</v>
       </c>
@@ -5147,15 +6072,19 @@
         <v>1843</v>
       </c>
       <c r="D93">
+        <f t="shared" si="5"/>
+        <v>57622</v>
+      </c>
+      <c r="E93" s="2">
         <f t="shared" si="3"/>
-        <v>55780</v>
-      </c>
-      <c r="E93" s="2">
-        <f t="shared" si="2"/>
-        <v>55.780557805578049</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57.622576225762252</v>
+      </c>
+      <c r="F93" s="5">
+        <f t="shared" si="4"/>
+        <v>1.8430184301843018</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>70</v>
       </c>
@@ -5166,15 +6095,19 @@
         <v>1831</v>
       </c>
       <c r="D94">
+        <f t="shared" si="5"/>
+        <v>59453</v>
+      </c>
+      <c r="E94" s="2">
         <f t="shared" si="3"/>
-        <v>57623</v>
-      </c>
-      <c r="E94" s="2">
-        <f t="shared" si="2"/>
-        <v>57.62357623576235</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59.453594535945356</v>
+      </c>
+      <c r="F94" s="5">
+        <f t="shared" si="4"/>
+        <v>1.8310183101831019</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>14</v>
       </c>
@@ -5185,15 +6118,19 @@
         <v>1769</v>
       </c>
       <c r="D95">
+        <f t="shared" si="5"/>
+        <v>61222</v>
+      </c>
+      <c r="E95" s="2">
         <f t="shared" si="3"/>
-        <v>59454</v>
-      </c>
-      <c r="E95" s="2">
-        <f t="shared" si="2"/>
-        <v>59.454594545945454</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61.222612226122259</v>
+      </c>
+      <c r="F95" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7690176901769019</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>3</v>
       </c>
@@ -5204,15 +6141,19 @@
         <v>1834</v>
       </c>
       <c r="D96">
+        <f t="shared" si="5"/>
+        <v>63056</v>
+      </c>
+      <c r="E96" s="2">
         <f t="shared" si="3"/>
-        <v>61223</v>
-      </c>
-      <c r="E96" s="2">
-        <f t="shared" si="2"/>
-        <v>61.223612236122356</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63.056630566305657</v>
+      </c>
+      <c r="F96" s="5">
+        <f t="shared" si="4"/>
+        <v>1.8340183401834016</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>41</v>
       </c>
@@ -5223,15 +6164,19 @@
         <v>1779</v>
       </c>
       <c r="D97">
+        <f t="shared" si="5"/>
+        <v>64835</v>
+      </c>
+      <c r="E97" s="2">
         <f t="shared" si="3"/>
-        <v>63057</v>
-      </c>
-      <c r="E97" s="2">
-        <f t="shared" si="2"/>
-        <v>63.057630576305755</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64.83564835648356</v>
+      </c>
+      <c r="F97" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7790177901779016</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>13</v>
       </c>
@@ -5242,15 +6187,19 @@
         <v>1728</v>
       </c>
       <c r="D98">
+        <f t="shared" si="5"/>
+        <v>66563</v>
+      </c>
+      <c r="E98" s="2">
         <f t="shared" si="3"/>
-        <v>64836</v>
-      </c>
-      <c r="E98" s="2">
-        <f t="shared" si="2"/>
-        <v>64.836648366483658</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66.563665636656367</v>
+      </c>
+      <c r="F98" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7280172801728018</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>40</v>
       </c>
@@ -5261,15 +6210,19 @@
         <v>1664</v>
       </c>
       <c r="D99">
+        <f t="shared" si="5"/>
+        <v>68227</v>
+      </c>
+      <c r="E99" s="2">
         <f t="shared" si="3"/>
-        <v>66564</v>
-      </c>
-      <c r="E99" s="2">
-        <f t="shared" si="2"/>
-        <v>66.564665646656465</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68.227682276822762</v>
+      </c>
+      <c r="F99" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6640166401664016</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>10</v>
       </c>
@@ -5280,15 +6233,19 @@
         <v>1615</v>
       </c>
       <c r="D100">
+        <f t="shared" si="5"/>
+        <v>69842</v>
+      </c>
+      <c r="E100" s="2">
         <f t="shared" si="3"/>
-        <v>68228</v>
-      </c>
-      <c r="E100" s="2">
-        <f t="shared" si="2"/>
-        <v>68.22868228682286</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69.842698426984271</v>
+      </c>
+      <c r="F100" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6150161501615017</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>20</v>
       </c>
@@ -5299,15 +6256,19 @@
         <v>1638</v>
       </c>
       <c r="D101">
+        <f t="shared" si="5"/>
+        <v>71480</v>
+      </c>
+      <c r="E101" s="2">
         <f t="shared" si="3"/>
-        <v>69843</v>
-      </c>
-      <c r="E101" s="2">
-        <f t="shared" si="2"/>
-        <v>69.843698436984369</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71.480714807148061</v>
+      </c>
+      <c r="F101" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6380163801638017</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>57</v>
       </c>
@@ -5318,15 +6279,19 @@
         <v>1617</v>
       </c>
       <c r="D102">
+        <f t="shared" si="5"/>
+        <v>73097</v>
+      </c>
+      <c r="E102" s="2">
         <f t="shared" si="3"/>
-        <v>71481</v>
-      </c>
-      <c r="E102" s="2">
-        <f t="shared" si="2"/>
-        <v>71.481714817148159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73.097730977309766</v>
+      </c>
+      <c r="F102" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6170161701617016</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>18</v>
       </c>
@@ -5337,15 +6302,19 @@
         <v>1516</v>
       </c>
       <c r="D103">
+        <f t="shared" si="5"/>
+        <v>74613</v>
+      </c>
+      <c r="E103" s="2">
         <f t="shared" si="3"/>
-        <v>73098</v>
-      </c>
-      <c r="E103" s="2">
-        <f t="shared" si="2"/>
-        <v>73.098730987309864</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74.613746137461362</v>
+      </c>
+      <c r="F103" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5160151601516016</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>31</v>
       </c>
@@ -5356,15 +6325,19 @@
         <v>1546</v>
       </c>
       <c r="D104">
+        <f t="shared" si="5"/>
+        <v>76159</v>
+      </c>
+      <c r="E104" s="2">
         <f t="shared" si="3"/>
-        <v>74614</v>
-      </c>
-      <c r="E104" s="2">
-        <f t="shared" si="2"/>
-        <v>74.614746147461474</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76.159761597615969</v>
+      </c>
+      <c r="F104" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5460154601546015</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>69</v>
       </c>
@@ -5375,15 +6348,19 @@
         <v>1461</v>
       </c>
       <c r="D105">
+        <f t="shared" si="5"/>
+        <v>77620</v>
+      </c>
+      <c r="E105" s="2">
         <f t="shared" si="3"/>
-        <v>76160</v>
-      </c>
-      <c r="E105" s="2">
-        <f t="shared" si="2"/>
-        <v>76.160761607616067</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77.620776207762077</v>
+      </c>
+      <c r="F105" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4610146101461015</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>29</v>
       </c>
@@ -5394,15 +6371,19 @@
         <v>1370</v>
       </c>
       <c r="D106">
+        <f t="shared" si="5"/>
+        <v>78990</v>
+      </c>
+      <c r="E106" s="2">
         <f t="shared" si="3"/>
-        <v>77621</v>
-      </c>
-      <c r="E106" s="2">
-        <f t="shared" si="2"/>
-        <v>77.621776217762175</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78.990789907899071</v>
+      </c>
+      <c r="F106" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3700137001370012</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>4</v>
       </c>
@@ -5413,15 +6394,19 @@
         <v>1334</v>
       </c>
       <c r="D107">
+        <f t="shared" si="5"/>
+        <v>80324</v>
+      </c>
+      <c r="E107" s="2">
         <f t="shared" si="3"/>
-        <v>78991</v>
-      </c>
-      <c r="E107" s="2">
-        <f t="shared" si="2"/>
-        <v>78.991789917899169</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80.324803248032467</v>
+      </c>
+      <c r="F107" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3340133401334013</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>66</v>
       </c>
@@ -5432,15 +6417,19 @@
         <v>1333</v>
       </c>
       <c r="D108">
+        <f t="shared" si="5"/>
+        <v>81657</v>
+      </c>
+      <c r="E108" s="2">
         <f t="shared" si="3"/>
-        <v>80325</v>
-      </c>
-      <c r="E108" s="2">
-        <f t="shared" si="2"/>
-        <v>80.325803258032579</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81.657816578165779</v>
+      </c>
+      <c r="F108" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3330133301333014</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>24</v>
       </c>
@@ -5451,15 +6440,19 @@
         <v>1218</v>
       </c>
       <c r="D109">
+        <f t="shared" si="5"/>
+        <v>82875</v>
+      </c>
+      <c r="E109" s="2">
         <f t="shared" si="3"/>
-        <v>81658</v>
-      </c>
-      <c r="E109" s="2">
-        <f t="shared" si="2"/>
-        <v>81.658816588165877</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82.875828758287582</v>
+      </c>
+      <c r="F109" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2180121801218013</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>84</v>
       </c>
@@ -5470,15 +6463,19 @@
         <v>1168</v>
       </c>
       <c r="D110">
+        <f t="shared" si="5"/>
+        <v>84043</v>
+      </c>
+      <c r="E110" s="2">
         <f t="shared" si="3"/>
-        <v>82876</v>
-      </c>
-      <c r="E110" s="2">
-        <f t="shared" si="2"/>
-        <v>82.87682876828768</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84.043840438404374</v>
+      </c>
+      <c r="F110" s="5">
+        <f t="shared" si="4"/>
+        <v>1.168011680116801</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>64</v>
       </c>
@@ -5489,15 +6486,19 @@
         <v>1166</v>
       </c>
       <c r="D111">
+        <f t="shared" si="5"/>
+        <v>85209</v>
+      </c>
+      <c r="E111" s="2">
         <f t="shared" si="3"/>
-        <v>84044</v>
-      </c>
-      <c r="E111" s="2">
-        <f t="shared" si="2"/>
-        <v>84.044840448404472</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85.209852098520983</v>
+      </c>
+      <c r="F111" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1660116601166011</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>72</v>
       </c>
@@ -5508,15 +6509,19 @@
         <v>1044</v>
       </c>
       <c r="D112">
+        <f t="shared" si="5"/>
+        <v>86253</v>
+      </c>
+      <c r="E112" s="2">
         <f t="shared" si="3"/>
-        <v>85210</v>
-      </c>
-      <c r="E112" s="2">
-        <f t="shared" si="2"/>
-        <v>85.210852108521081</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86.253862538625384</v>
+      </c>
+      <c r="F112" s="5">
+        <f t="shared" si="4"/>
+        <v>1.044010440104401</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>56</v>
       </c>
@@ -5527,15 +6532,19 @@
         <v>1050</v>
       </c>
       <c r="D113">
+        <f t="shared" si="5"/>
+        <v>87303</v>
+      </c>
+      <c r="E113" s="2">
         <f t="shared" si="3"/>
-        <v>86254</v>
-      </c>
-      <c r="E113" s="2">
-        <f t="shared" si="2"/>
-        <v>86.254862548625482</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87.303873038730373</v>
+      </c>
+      <c r="F113" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0500105001050011</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>67</v>
       </c>
@@ -5546,15 +6555,19 @@
         <v>1036</v>
       </c>
       <c r="D114">
+        <f t="shared" si="5"/>
+        <v>88339</v>
+      </c>
+      <c r="E114" s="2">
         <f t="shared" si="3"/>
-        <v>87304</v>
-      </c>
-      <c r="E114" s="2">
-        <f t="shared" si="2"/>
-        <v>87.304873048730485</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88.339883398833976</v>
+      </c>
+      <c r="F114" s="5">
+        <f t="shared" si="4"/>
+        <v>1.036010360103601</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>19</v>
       </c>
@@ -5565,15 +6578,19 @@
         <v>946</v>
       </c>
       <c r="D115">
+        <f t="shared" si="5"/>
+        <v>89285</v>
+      </c>
+      <c r="E115" s="2">
         <f t="shared" si="3"/>
-        <v>88340</v>
-      </c>
-      <c r="E115" s="2">
-        <f t="shared" si="2"/>
-        <v>88.340883408834074</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89.285892858928577</v>
+      </c>
+      <c r="F115" s="5">
+        <f t="shared" si="4"/>
+        <v>0.94600946009460085</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>7</v>
       </c>
@@ -5584,15 +6601,19 @@
         <v>861</v>
       </c>
       <c r="D116">
+        <f t="shared" si="5"/>
+        <v>90146</v>
+      </c>
+      <c r="E116" s="2">
         <f t="shared" si="3"/>
-        <v>89286</v>
-      </c>
-      <c r="E116" s="2">
-        <f t="shared" si="2"/>
-        <v>89.286892868928675</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90.146901469014679</v>
+      </c>
+      <c r="F116" s="5">
+        <f t="shared" si="4"/>
+        <v>0.86100861008610086</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>51</v>
       </c>
@@ -5603,15 +6624,19 @@
         <v>854</v>
       </c>
       <c r="D117">
+        <f t="shared" si="5"/>
+        <v>91000</v>
+      </c>
+      <c r="E117" s="2">
         <f t="shared" si="3"/>
-        <v>90147</v>
-      </c>
-      <c r="E117" s="2">
-        <f t="shared" si="2"/>
-        <v>90.147901479014777</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91.000910009100082</v>
+      </c>
+      <c r="F117" s="5">
+        <f t="shared" si="4"/>
+        <v>0.85400854008540095</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>26</v>
       </c>
@@ -5622,15 +6647,19 @@
         <v>782</v>
       </c>
       <c r="D118">
+        <f t="shared" si="5"/>
+        <v>91782</v>
+      </c>
+      <c r="E118" s="2">
         <f t="shared" si="3"/>
-        <v>91001</v>
-      </c>
-      <c r="E118" s="2">
-        <f t="shared" si="2"/>
-        <v>91.00191001910018</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91.782917829178288</v>
+      </c>
+      <c r="F118" s="5">
+        <f t="shared" si="4"/>
+        <v>0.7820078200782008</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43</v>
       </c>
@@ -5641,15 +6670,19 @@
         <v>717</v>
       </c>
       <c r="D119">
+        <f t="shared" si="5"/>
+        <v>92499</v>
+      </c>
+      <c r="E119" s="2">
         <f t="shared" si="3"/>
-        <v>91783</v>
-      </c>
-      <c r="E119" s="2">
-        <f t="shared" si="2"/>
-        <v>91.783917839178386</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92.499924999249984</v>
+      </c>
+      <c r="F119" s="5">
+        <f t="shared" si="4"/>
+        <v>0.71700717007170067</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>60</v>
       </c>
@@ -5660,15 +6693,19 @@
         <v>676</v>
       </c>
       <c r="D120">
+        <f t="shared" si="5"/>
+        <v>93175</v>
+      </c>
+      <c r="E120" s="2">
         <f t="shared" si="3"/>
-        <v>92500</v>
-      </c>
-      <c r="E120" s="2">
-        <f t="shared" si="2"/>
-        <v>92.500925009250082</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93.175931759317592</v>
+      </c>
+      <c r="F120" s="5">
+        <f t="shared" si="4"/>
+        <v>0.67600676006760074</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>91</v>
       </c>
@@ -5679,15 +6716,19 @@
         <v>642</v>
       </c>
       <c r="D121">
+        <f t="shared" si="5"/>
+        <v>93817</v>
+      </c>
+      <c r="E121" s="2">
         <f t="shared" si="3"/>
-        <v>93176</v>
-      </c>
-      <c r="E121" s="2">
-        <f t="shared" si="2"/>
-        <v>93.17693176931769</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93.817938179381784</v>
+      </c>
+      <c r="F121" s="5">
+        <f t="shared" si="4"/>
+        <v>0.64200642006420061</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>0</v>
       </c>
@@ -5698,15 +6739,19 @@
         <v>568</v>
       </c>
       <c r="D122">
+        <f t="shared" si="5"/>
+        <v>94385</v>
+      </c>
+      <c r="E122" s="2">
         <f t="shared" si="3"/>
-        <v>93818</v>
-      </c>
-      <c r="E122" s="2">
-        <f t="shared" si="2"/>
-        <v>93.818938189381882</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94.385943859438584</v>
+      </c>
+      <c r="F122" s="5">
+        <f t="shared" si="4"/>
+        <v>0.56800568005680052</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>75</v>
       </c>
@@ -5717,15 +6762,19 @@
         <v>503</v>
       </c>
       <c r="D123">
+        <f t="shared" si="5"/>
+        <v>94888</v>
+      </c>
+      <c r="E123" s="2">
         <f t="shared" si="3"/>
-        <v>94386</v>
-      </c>
-      <c r="E123" s="2">
-        <f t="shared" si="2"/>
-        <v>94.386943869438682</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94.888948889488887</v>
+      </c>
+      <c r="F123" s="5">
+        <f t="shared" si="4"/>
+        <v>0.50300503005030051</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>78</v>
       </c>
@@ -5736,15 +6785,19 @@
         <v>512</v>
       </c>
       <c r="D124">
+        <f t="shared" si="5"/>
+        <v>95400</v>
+      </c>
+      <c r="E124" s="2">
         <f t="shared" si="3"/>
-        <v>94889</v>
-      </c>
-      <c r="E124" s="2">
-        <f t="shared" si="2"/>
-        <v>94.889948899488985</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95.400954009540087</v>
+      </c>
+      <c r="F124" s="5">
+        <f t="shared" si="4"/>
+        <v>0.51200512005120047</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>55</v>
       </c>
@@ -5755,15 +6808,19 @@
         <v>472</v>
       </c>
       <c r="D125">
+        <f t="shared" si="5"/>
+        <v>95872</v>
+      </c>
+      <c r="E125" s="2">
         <f t="shared" si="3"/>
-        <v>95401</v>
-      </c>
-      <c r="E125" s="2">
-        <f t="shared" si="2"/>
-        <v>95.401954019540185</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95.872958729587282</v>
+      </c>
+      <c r="F125" s="5">
+        <f t="shared" si="4"/>
+        <v>0.47200472004720051</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>101</v>
       </c>
@@ -5774,15 +6831,19 @@
         <v>424</v>
       </c>
       <c r="D126">
+        <f t="shared" si="5"/>
+        <v>96296</v>
+      </c>
+      <c r="E126" s="2">
         <f t="shared" si="3"/>
-        <v>95873</v>
-      </c>
-      <c r="E126" s="2">
-        <f t="shared" si="2"/>
-        <v>95.873958739587394</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96.296962969629689</v>
+      </c>
+      <c r="F126" s="5">
+        <f t="shared" si="4"/>
+        <v>0.42400424004240039</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>81</v>
       </c>
@@ -5793,15 +6854,19 @@
         <v>383</v>
       </c>
       <c r="D127">
+        <f t="shared" si="5"/>
+        <v>96679</v>
+      </c>
+      <c r="E127" s="2">
         <f t="shared" si="3"/>
-        <v>96297</v>
-      </c>
-      <c r="E127" s="2">
-        <f t="shared" si="2"/>
-        <v>96.297962979629787</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96.679966799667994</v>
+      </c>
+      <c r="F127" s="5">
+        <f t="shared" si="4"/>
+        <v>0.38300383003830035</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>15</v>
       </c>
@@ -5812,15 +6877,19 @@
         <v>348</v>
       </c>
       <c r="D128">
+        <f t="shared" si="5"/>
+        <v>97027</v>
+      </c>
+      <c r="E128" s="2">
         <f t="shared" si="3"/>
-        <v>96680</v>
-      </c>
-      <c r="E128" s="2">
-        <f t="shared" si="2"/>
-        <v>96.680966809668092</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97.027970279702785</v>
+      </c>
+      <c r="F128" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34800348003480036</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>82</v>
       </c>
@@ -5831,15 +6900,19 @@
         <v>324</v>
       </c>
       <c r="D129">
+        <f t="shared" si="5"/>
+        <v>97351</v>
+      </c>
+      <c r="E129" s="2">
         <f t="shared" si="3"/>
-        <v>97028</v>
-      </c>
-      <c r="E129" s="2">
-        <f t="shared" si="2"/>
-        <v>97.028970289702883</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97.351973519735182</v>
+      </c>
+      <c r="F129" s="5">
+        <f t="shared" si="4"/>
+        <v>0.32400324003240033</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>73</v>
       </c>
@@ -5850,15 +6923,19 @@
         <v>309</v>
       </c>
       <c r="D130">
+        <f t="shared" si="5"/>
+        <v>97660</v>
+      </c>
+      <c r="E130" s="2">
         <f t="shared" si="3"/>
-        <v>97352</v>
-      </c>
-      <c r="E130" s="2">
-        <f t="shared" si="2"/>
-        <v>97.352973529735294</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97.660976609766095</v>
+      </c>
+      <c r="F130" s="5">
+        <f t="shared" si="4"/>
+        <v>0.30900309003090032</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>99</v>
       </c>
@@ -5869,15 +6946,19 @@
         <v>272</v>
       </c>
       <c r="D131">
-        <f t="shared" si="3"/>
-        <v>97661</v>
+        <f t="shared" si="5"/>
+        <v>97932</v>
       </c>
       <c r="E131" s="2">
-        <f t="shared" ref="E131:E166" si="4">(100/D$166)*D131</f>
-        <v>97.661976619766193</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E131:E166" si="6">(100/D$166)*D131</f>
+        <v>97.932979329793284</v>
+      </c>
+      <c r="F131" s="5">
+        <f t="shared" ref="F131:F166" si="7">C131/SUM($C$2:$C$166)*100</f>
+        <v>0.27200272002720027</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>111</v>
       </c>
@@ -5888,15 +6969,19 @@
         <v>236</v>
       </c>
       <c r="D132">
-        <f t="shared" si="3"/>
-        <v>97933</v>
+        <f t="shared" ref="D132:D166" si="8">C132+D131</f>
+        <v>98168</v>
       </c>
       <c r="E132" s="2">
-        <f t="shared" si="4"/>
-        <v>97.933979339793396</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>98.168981689816889</v>
+      </c>
+      <c r="F132" s="5">
+        <f t="shared" si="7"/>
+        <v>0.23600236002360026</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>79</v>
       </c>
@@ -5907,15 +6992,19 @@
         <v>207</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D166" si="5">D132+C132</f>
-        <v>98169</v>
+        <f t="shared" si="8"/>
+        <v>98375</v>
       </c>
       <c r="E133" s="2">
-        <f t="shared" si="4"/>
-        <v>98.169981699816987</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>98.375983759837595</v>
+      </c>
+      <c r="F133" s="5">
+        <f t="shared" si="7"/>
+        <v>0.20700207002070017</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>90</v>
       </c>
@@ -5926,15 +7015,19 @@
         <v>224</v>
       </c>
       <c r="D134">
-        <f t="shared" si="5"/>
-        <v>98376</v>
+        <f t="shared" si="8"/>
+        <v>98599</v>
       </c>
       <c r="E134" s="2">
-        <f t="shared" si="4"/>
-        <v>98.376983769837693</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>98.599985999859996</v>
+      </c>
+      <c r="F134" s="5">
+        <f t="shared" si="7"/>
+        <v>0.22400224002240024</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>61</v>
       </c>
@@ -5945,15 +7038,19 @@
         <v>161</v>
       </c>
       <c r="D135">
-        <f t="shared" si="5"/>
-        <v>98600</v>
+        <f t="shared" si="8"/>
+        <v>98760</v>
       </c>
       <c r="E135" s="2">
-        <f t="shared" si="4"/>
-        <v>98.600986009860094</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>98.760987609876096</v>
+      </c>
+      <c r="F135" s="5">
+        <f t="shared" si="7"/>
+        <v>0.16100161001610017</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>96</v>
       </c>
@@ -5964,15 +7061,19 @@
         <v>161</v>
       </c>
       <c r="D136">
-        <f t="shared" si="5"/>
-        <v>98761</v>
+        <f t="shared" si="8"/>
+        <v>98921</v>
       </c>
       <c r="E136" s="2">
-        <f t="shared" si="4"/>
-        <v>98.761987619876194</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>98.921989219892197</v>
+      </c>
+      <c r="F136" s="5">
+        <f t="shared" si="7"/>
+        <v>0.16100161001610017</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>104</v>
       </c>
@@ -5983,15 +7084,19 @@
         <v>128</v>
       </c>
       <c r="D137">
-        <f t="shared" si="5"/>
-        <v>98922</v>
+        <f t="shared" si="8"/>
+        <v>99049</v>
       </c>
       <c r="E137" s="2">
-        <f t="shared" si="4"/>
-        <v>98.922989229892295</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.049990499904993</v>
+      </c>
+      <c r="F137" s="5">
+        <f t="shared" si="7"/>
+        <v>0.12800128001280012</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>28</v>
       </c>
@@ -6002,15 +7107,19 @@
         <v>117</v>
       </c>
       <c r="D138">
-        <f t="shared" si="5"/>
-        <v>99050</v>
+        <f t="shared" si="8"/>
+        <v>99166</v>
       </c>
       <c r="E138" s="2">
-        <f t="shared" si="4"/>
-        <v>99.050990509905091</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.166991669916698</v>
+      </c>
+      <c r="F138" s="5">
+        <f t="shared" si="7"/>
+        <v>0.11700117001170011</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>110</v>
       </c>
@@ -6021,15 +7130,19 @@
         <v>103</v>
       </c>
       <c r="D139">
-        <f t="shared" si="5"/>
-        <v>99167</v>
+        <f t="shared" si="8"/>
+        <v>99269</v>
       </c>
       <c r="E139" s="2">
-        <f t="shared" si="4"/>
-        <v>99.167991679916796</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.269992699926988</v>
+      </c>
+      <c r="F139" s="5">
+        <f t="shared" si="7"/>
+        <v>0.10300103001030012</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>102</v>
       </c>
@@ -6040,15 +7153,19 @@
         <v>95</v>
       </c>
       <c r="D140">
-        <f t="shared" si="5"/>
-        <v>99270</v>
+        <f t="shared" si="8"/>
+        <v>99364</v>
       </c>
       <c r="E140" s="2">
-        <f t="shared" si="4"/>
-        <v>99.270992709927086</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.364993649936494</v>
+      </c>
+      <c r="F140" s="5">
+        <f t="shared" si="7"/>
+        <v>9.5000950009500096E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>118</v>
       </c>
@@ -6059,15 +7176,19 @@
         <v>84</v>
       </c>
       <c r="D141">
-        <f t="shared" si="5"/>
-        <v>99365</v>
+        <f t="shared" si="8"/>
+        <v>99448</v>
       </c>
       <c r="E141" s="2">
-        <f t="shared" si="4"/>
-        <v>99.365993659936592</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.448994489944894</v>
+      </c>
+      <c r="F141" s="5">
+        <f t="shared" si="7"/>
+        <v>8.4000840008400079E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>97</v>
       </c>
@@ -6078,15 +7199,19 @@
         <v>69</v>
       </c>
       <c r="D142">
-        <f t="shared" si="5"/>
-        <v>99449</v>
+        <f t="shared" si="8"/>
+        <v>99517</v>
       </c>
       <c r="E142" s="2">
-        <f t="shared" si="4"/>
-        <v>99.449994499944992</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.517995179951797</v>
+      </c>
+      <c r="F142" s="5">
+        <f t="shared" si="7"/>
+        <v>6.9000690006900067E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>113</v>
       </c>
@@ -6097,15 +7222,19 @@
         <v>72</v>
       </c>
       <c r="D143">
-        <f t="shared" si="5"/>
-        <v>99518</v>
+        <f t="shared" si="8"/>
+        <v>99589</v>
       </c>
       <c r="E143" s="2">
-        <f t="shared" si="4"/>
-        <v>99.518995189951895</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.589995899958993</v>
+      </c>
+      <c r="F143" s="5">
+        <f t="shared" si="7"/>
+        <v>7.2000720007200064E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>133</v>
       </c>
@@ -6116,15 +7245,19 @@
         <v>62</v>
       </c>
       <c r="D144">
-        <f t="shared" si="5"/>
-        <v>99590</v>
+        <f t="shared" si="8"/>
+        <v>99651</v>
       </c>
       <c r="E144" s="2">
-        <f t="shared" si="4"/>
-        <v>99.590995909959091</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.651996519965195</v>
+      </c>
+      <c r="F144" s="5">
+        <f t="shared" si="7"/>
+        <v>6.2000620006200061E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>119</v>
       </c>
@@ -6135,15 +7268,19 @@
         <v>67</v>
       </c>
       <c r="D145">
-        <f t="shared" si="5"/>
-        <v>99652</v>
+        <f t="shared" si="8"/>
+        <v>99718</v>
       </c>
       <c r="E145" s="2">
-        <f t="shared" si="4"/>
-        <v>99.652996529965293</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.718997189971887</v>
+      </c>
+      <c r="F145" s="5">
+        <f t="shared" si="7"/>
+        <v>6.7000670006700069E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>134</v>
       </c>
@@ -6154,15 +7291,19 @@
         <v>36</v>
       </c>
       <c r="D146">
-        <f t="shared" si="5"/>
-        <v>99719</v>
+        <f t="shared" si="8"/>
+        <v>99754</v>
       </c>
       <c r="E146" s="2">
-        <f t="shared" si="4"/>
-        <v>99.719997199971985</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.754997549975485</v>
+      </c>
+      <c r="F146" s="5">
+        <f t="shared" si="7"/>
+        <v>3.6000360003600032E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>120</v>
       </c>
@@ -6173,15 +7314,19 @@
         <v>45</v>
       </c>
       <c r="D147">
-        <f t="shared" si="5"/>
-        <v>99755</v>
+        <f t="shared" si="8"/>
+        <v>99799</v>
       </c>
       <c r="E147" s="2">
-        <f t="shared" si="4"/>
-        <v>99.755997559975597</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.799997999979993</v>
+      </c>
+      <c r="F147" s="5">
+        <f t="shared" si="7"/>
+        <v>4.5000450004500044E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>131</v>
       </c>
@@ -6192,15 +7337,19 @@
         <v>25</v>
       </c>
       <c r="D148">
-        <f t="shared" si="5"/>
-        <v>99800</v>
+        <f t="shared" si="8"/>
+        <v>99824</v>
       </c>
       <c r="E148" s="2">
-        <f t="shared" si="4"/>
-        <v>99.800998009980091</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.824998249982485</v>
+      </c>
+      <c r="F148" s="5">
+        <f t="shared" si="7"/>
+        <v>2.5000250002500023E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>138</v>
       </c>
@@ -6211,15 +7360,19 @@
         <v>21</v>
       </c>
       <c r="D149">
-        <f t="shared" si="5"/>
-        <v>99825</v>
+        <f t="shared" si="8"/>
+        <v>99845</v>
       </c>
       <c r="E149" s="2">
-        <f t="shared" si="4"/>
-        <v>99.825998259982597</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.845998459984585</v>
+      </c>
+      <c r="F149" s="5">
+        <f t="shared" si="7"/>
+        <v>2.100021000210002E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>106</v>
       </c>
@@ -6230,15 +7383,19 @@
         <v>22</v>
       </c>
       <c r="D150">
-        <f t="shared" si="5"/>
-        <v>99846</v>
+        <f t="shared" si="8"/>
+        <v>99867</v>
       </c>
       <c r="E150" s="2">
-        <f t="shared" si="4"/>
-        <v>99.846998469984698</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.867998679986798</v>
+      </c>
+      <c r="F150" s="5">
+        <f t="shared" si="7"/>
+        <v>2.2000220002200022E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>152</v>
       </c>
@@ -6249,15 +7406,19 @@
         <v>21</v>
       </c>
       <c r="D151">
-        <f t="shared" si="5"/>
-        <v>99868</v>
+        <f t="shared" si="8"/>
+        <v>99888</v>
       </c>
       <c r="E151" s="2">
-        <f t="shared" si="4"/>
-        <v>99.868998689986896</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.888998889988898</v>
+      </c>
+      <c r="F151" s="5">
+        <f t="shared" si="7"/>
+        <v>2.100021000210002E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>124</v>
       </c>
@@ -6268,15 +7429,19 @@
         <v>13</v>
       </c>
       <c r="D152">
-        <f t="shared" si="5"/>
-        <v>99889</v>
+        <f t="shared" si="8"/>
+        <v>99901</v>
       </c>
       <c r="E152" s="2">
-        <f t="shared" si="4"/>
-        <v>99.889998899988996</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.901999019990186</v>
+      </c>
+      <c r="F152" s="5">
+        <f t="shared" si="7"/>
+        <v>1.3000130001300013E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>116</v>
       </c>
@@ -6287,15 +7452,19 @@
         <v>26</v>
       </c>
       <c r="D153">
-        <f t="shared" si="5"/>
-        <v>99902</v>
+        <f t="shared" si="8"/>
+        <v>99927</v>
       </c>
       <c r="E153" s="2">
-        <f t="shared" si="4"/>
-        <v>99.902999029990298</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.92799927999279</v>
+      </c>
+      <c r="F153" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6000260002600025E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>148</v>
       </c>
@@ -6306,15 +7475,19 @@
         <v>14</v>
       </c>
       <c r="D154">
-        <f t="shared" si="5"/>
-        <v>99928</v>
+        <f t="shared" si="8"/>
+        <v>99941</v>
       </c>
       <c r="E154" s="2">
-        <f t="shared" si="4"/>
-        <v>99.928999289992888</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.94199941999419</v>
+      </c>
+      <c r="F154" s="5">
+        <f t="shared" si="7"/>
+        <v>1.4000140001400015E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>123</v>
       </c>
@@ -6325,15 +7498,19 @@
         <v>6</v>
       </c>
       <c r="D155">
-        <f t="shared" si="5"/>
-        <v>99942</v>
+        <f t="shared" si="8"/>
+        <v>99947</v>
       </c>
       <c r="E155" s="2">
-        <f t="shared" si="4"/>
-        <v>99.942999429994288</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.947999479994792</v>
+      </c>
+      <c r="F155" s="5">
+        <f t="shared" si="7"/>
+        <v>6.0000600006000059E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -6344,15 +7521,19 @@
         <v>9</v>
       </c>
       <c r="D156">
-        <f t="shared" si="5"/>
-        <v>99948</v>
+        <f t="shared" si="8"/>
+        <v>99956</v>
       </c>
       <c r="E156" s="2">
-        <f t="shared" si="4"/>
-        <v>99.94899948999489</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.956999569995688</v>
+      </c>
+      <c r="F156" s="5">
+        <f t="shared" si="7"/>
+        <v>9.000090000900008E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>105</v>
       </c>
@@ -6363,15 +7544,19 @@
         <v>11</v>
       </c>
       <c r="D157">
-        <f t="shared" si="5"/>
-        <v>99957</v>
+        <f t="shared" si="8"/>
+        <v>99967</v>
       </c>
       <c r="E157" s="2">
-        <f t="shared" si="4"/>
-        <v>99.957999579995786</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.967999679996794</v>
+      </c>
+      <c r="F157" s="5">
+        <f t="shared" si="7"/>
+        <v>1.1000110001100011E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>145</v>
       </c>
@@ -6382,15 +7567,19 @@
         <v>10</v>
       </c>
       <c r="D158">
-        <f t="shared" si="5"/>
-        <v>99968</v>
+        <f t="shared" si="8"/>
+        <v>99977</v>
       </c>
       <c r="E158" s="2">
-        <f t="shared" si="4"/>
-        <v>99.968999689996892</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.977999779997788</v>
+      </c>
+      <c r="F158" s="5">
+        <f t="shared" si="7"/>
+        <v>1.000010000100001E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>139</v>
       </c>
@@ -6401,15 +7590,19 @@
         <v>5</v>
       </c>
       <c r="D159">
-        <f t="shared" si="5"/>
-        <v>99978</v>
+        <f t="shared" si="8"/>
+        <v>99982</v>
       </c>
       <c r="E159" s="2">
-        <f t="shared" si="4"/>
-        <v>99.978999789997886</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.982999829998292</v>
+      </c>
+      <c r="F159" s="5">
+        <f t="shared" si="7"/>
+        <v>5.0000500005000052E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>157</v>
       </c>
@@ -6420,15 +7613,19 @@
         <v>2</v>
       </c>
       <c r="D160">
-        <f t="shared" si="5"/>
-        <v>99983</v>
+        <f t="shared" si="8"/>
+        <v>99984</v>
       </c>
       <c r="E160" s="2">
-        <f t="shared" si="4"/>
-        <v>99.98399983999839</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.984999849998488</v>
+      </c>
+      <c r="F160" s="5">
+        <f t="shared" si="7"/>
+        <v>2.0000200002000018E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -6439,15 +7636,19 @@
         <v>3</v>
       </c>
       <c r="D161">
-        <f t="shared" si="5"/>
-        <v>99985</v>
+        <f t="shared" si="8"/>
+        <v>99987</v>
       </c>
       <c r="E161" s="2">
-        <f t="shared" si="4"/>
-        <v>99.985999859998586</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.987999879998796</v>
+      </c>
+      <c r="F161" s="5">
+        <f t="shared" si="7"/>
+        <v>3.000030000300003E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>151</v>
       </c>
@@ -6458,15 +7659,19 @@
         <v>2</v>
       </c>
       <c r="D162">
-        <f t="shared" si="5"/>
-        <v>99988</v>
+        <f t="shared" si="8"/>
+        <v>99989</v>
       </c>
       <c r="E162" s="2">
-        <f t="shared" si="4"/>
-        <v>99.988999889998894</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.989999899998992</v>
+      </c>
+      <c r="F162" s="5">
+        <f t="shared" si="7"/>
+        <v>2.0000200002000018E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>141</v>
       </c>
@@ -6477,15 +7682,19 @@
         <v>4</v>
       </c>
       <c r="D163">
-        <f t="shared" si="5"/>
-        <v>99990</v>
+        <f t="shared" si="8"/>
+        <v>99993</v>
       </c>
       <c r="E163" s="2">
-        <f t="shared" si="4"/>
-        <v>99.99099990999909</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.993999939999398</v>
+      </c>
+      <c r="F163" s="5">
+        <f t="shared" si="7"/>
+        <v>4.0000400004000037E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>142</v>
       </c>
@@ -6496,15 +7705,19 @@
         <v>2</v>
       </c>
       <c r="D164">
-        <f t="shared" si="5"/>
-        <v>99994</v>
+        <f t="shared" si="8"/>
+        <v>99995</v>
       </c>
       <c r="E164" s="2">
-        <f t="shared" si="4"/>
-        <v>99.994999949999496</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.995999959999594</v>
+      </c>
+      <c r="F164" s="5">
+        <f t="shared" si="7"/>
+        <v>2.0000200002000018E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>149</v>
       </c>
@@ -6515,15 +7728,19 @@
         <v>3</v>
       </c>
       <c r="D165">
-        <f t="shared" si="5"/>
-        <v>99996</v>
+        <f t="shared" si="8"/>
+        <v>99998</v>
       </c>
       <c r="E165" s="2">
-        <f t="shared" si="4"/>
-        <v>99.996999969999692</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>99.998999989999888</v>
+      </c>
+      <c r="F165" s="5">
+        <f t="shared" si="7"/>
+        <v>3.000030000300003E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6534,12 +7751,16 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>99999</v>
       </c>
       <c r="E166" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>99.999999999999986</v>
+      </c>
+      <c r="F166" s="5">
+        <f t="shared" si="7"/>
+        <v>1.0000100001000009E-3</v>
       </c>
     </row>
   </sheetData>
